--- a/UserStories.xlsx
+++ b/UserStories.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Labuser.IFIT-E\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="110" windowWidth="18900" windowHeight="7330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -28,9 +33,6 @@
   </si>
   <si>
     <t>Priorität</t>
-  </si>
-  <si>
-    <t>Notitzen</t>
   </si>
   <si>
     <t>Verantwortlichkeit</t>
@@ -40,10 +42,6 @@
 können.</t>
   </si>
   <si>
-    <t>Als Spieler will ich mich zu einem anderen Spiel
-über WLAN verbinden können.</t>
-  </si>
-  <si>
     <t>Als Spieler will ich gewinnen, wenn meine Spielfigur das Zielfeld erreicht.</t>
   </si>
   <si>
@@ -56,7 +54,109 @@
     <t>Als Spieler will ich würfeln und meine Spielfiguren bewegen können.</t>
   </si>
   <si>
-    <t>Als Spieler will ich Schummeln können (???)</t>
+    <t>Als Spieler will ich eine gute Oberfläche um übersichtlich spielen zu können.</t>
+  </si>
+  <si>
+    <t>Als Spieler will ich Schummeln können.</t>
+  </si>
+  <si>
+    <t>Constraint:</t>
+  </si>
+  <si>
+    <t>Als User möchte ich das Spiel auf allen gängigen Geräten spielen können.</t>
+  </si>
+  <si>
+    <t>Als Spieler will ich mit anderen Spielern gemeinsam spielen können.</t>
+  </si>
+  <si>
+    <t>Als User möchte ich das Spiel ohne größere Verzögerungen spielen können.</t>
+  </si>
+  <si>
+    <t>Als User will ich mich im Spiel zurecht finden.</t>
+  </si>
+  <si>
+    <t>Notizen</t>
+  </si>
+  <si>
+    <t>Als User sollen mir die Regeln klar ersichtlich sein.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich einen gesicherten Spielablauf.</t>
+  </si>
+  <si>
+    <t>Als User möchte ich ein interaktives Spielbrett.</t>
+  </si>
+  <si>
+    <t>Priorität 1-5. Schulnotensystem</t>
+  </si>
+  <si>
+    <t>Daniel Leustik</t>
+  </si>
+  <si>
+    <t>Daniel Leitner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friedemann Zindler </t>
+  </si>
+  <si>
+    <t>Mathias Jesse</t>
+  </si>
+  <si>
+    <t>Petra Tschinderle</t>
+  </si>
+  <si>
+    <t>Friedemann Zindler</t>
+  </si>
+  <si>
+    <t>Mathias Jesse/Friedemann Zindler</t>
+  </si>
+  <si>
+    <t>Welche Figur man spielt.</t>
+  </si>
+  <si>
+    <t>Inklusive Zugmechanismus.</t>
+  </si>
+  <si>
+    <t>App starten - Startscreen</t>
+  </si>
+  <si>
+    <t>WLAN Kommunikation. Sessions.</t>
+  </si>
+  <si>
+    <t>Stein und seine Funktion.</t>
+  </si>
+  <si>
+    <t>Gewinnerscreen - Soundeffekte</t>
+  </si>
+  <si>
+    <t>Lügen beim Würfeln.</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Mögliche Zugpositionen.</t>
+  </si>
+  <si>
+    <t>Gesamt:</t>
+  </si>
+  <si>
+    <t>Gesamtkosten:</t>
+  </si>
+  <si>
+    <t>ca. 50 Story Points</t>
+  </si>
+  <si>
+    <t>50 Story Points * 10h/Point * 120€/h</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woche </t>
+  </si>
+  <si>
+    <t>Points:</t>
   </si>
 </sst>
 </file>
@@ -88,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -141,11 +241,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,9 +353,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -175,14 +381,924 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burn down chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6580927384076991E-2"/>
+          <c:y val="0.13190981335666374"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Points:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$25:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="267336824"/>
+        <c:axId val="267339568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="267336824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267339568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="267339568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267336824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -220,9 +1336,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,7 +1373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,7 +1408,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -466,21 +1582,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="5" max="5" width="32.81640625" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,50 +1610,357 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8">
+        <f>SUM(C2:C10)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="13">
+        <f>50*10*120</f>
+        <v>60000</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>12</v>
+      <c r="C32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -547,7 +1970,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -559,7 +1982,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
